--- a/V1/teensy/SinTable.xlsx
+++ b/V1/teensy/SinTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Documents/Arduino/ESC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphael/Documents/electric-skateboard/ESC/V1/teensy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,8 +75,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -93,19 +95,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -194,1081 +198,1081 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>545.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>559.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>574.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>602.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>629.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>656.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>669.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>682.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>695.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>707.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>766.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>777.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>788.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>799.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>819.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>839.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>848.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>866.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>883.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>899.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>914.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>927.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>934.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>956.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>961.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>966.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>974.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>978.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>982.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>985.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>988.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>993.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>995.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>996.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>998.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>999.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>999.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>999.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>999.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>998.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>996.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>995.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>993.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>988.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>985.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>982.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>978.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>974.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>970.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>966.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>961.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>956.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>934.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>927.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>914.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>899.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>891.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>883.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>866.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>848.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>839.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>829.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>819.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>809.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>799.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>788.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>777.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>766.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>755.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>743.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>719.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>707.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>695.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>682.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>669.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>656.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>629.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>616.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>602.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>574.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>559.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>545.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
                   <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>163.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>187.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>211.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>227.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>258.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>272.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>280.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>287.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>308.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>321.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>328.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>335.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>341.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>347.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>354.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>366.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>372.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>377.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>383.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>389.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>394.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>399.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>415.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>419.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>424.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>433.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>437.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>441.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>446.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>449.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>453.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>457.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>464.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>467.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>473.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>476.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>478.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>483.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>485.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>487.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>489.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>491.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>492.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>494.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>495.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>496.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>497.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>498.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>499.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>499.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>499.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>499.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>498.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>497.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>496.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>495.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>494.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>492.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>491.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>489.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>487.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>485.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>483.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>478.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>476.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>473.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>467.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>464.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>457.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>453.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>449.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>446.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>441.0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>437.0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>433.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>424.0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>419.0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>415.0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>399.0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>394.0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>389.0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>383.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>377.0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>372.0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>366.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>354.0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>347.0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>341.0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>335.0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>328.0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>321.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>308.0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>287.0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>280.0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>272.0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>258.0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>227.0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>211.0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>187.0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>163.0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-9.0</c:v>
+                  <c:v>-17.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-52.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-70.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-87.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-105.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-122.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-139.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-156.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-174.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-191.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-208.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-225.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-242.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-259.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-276.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-292.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-309.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-326.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-342.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-358.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-375.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-391.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-407.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-423.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-438.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-454.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-469.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-485.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-500.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-515.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-530.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-545.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-559.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-574.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-588.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-602.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-616.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-629.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-643.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-656.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-669.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-682.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-695.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-707.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-719.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-731.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-743.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-755.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-766.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-777.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-788.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-799.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-809.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-819.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-829.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-839.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-848.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-857.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-866.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-875.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-883.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-891.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-899.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-906.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-914.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-921.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-927.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-934.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-940.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-946.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-951.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-956.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-961.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-966.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-970.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-974.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-978.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-982.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-985.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-988.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-990.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-993.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-995.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-996.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-998.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-999.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-999.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-1000.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-1000.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1000.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-999.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-999.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-998.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-996.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-995.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-993.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-990.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-988.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-985.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-982.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-978.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-974.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-970.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-966.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-961.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-956.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-951.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-946.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-940.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-934.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-927.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-921.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-914.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-906.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-899.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-891.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-883.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-875.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-866.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-857.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-848.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-839.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-829.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-819.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-809.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-799.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-788.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-777.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-766.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-755.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-743.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-731.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-719.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-707.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-695.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-682.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-669.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-656.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-643.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-629.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-616.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-602.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-588.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-574.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-559.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-545.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-530.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-515.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-500.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-485.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-469.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-454.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-438.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-423.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-407.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-391.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-375.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-358.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-342.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-326.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-309.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-292.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-276.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-259.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-242.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-225.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-208.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-191.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-174.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-156.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-139.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-122.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-105.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-87.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-70.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-52.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
                   <c:v>-17.0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-26.0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-35.0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-44.0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-52.0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-61.0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>-70.0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>-78.0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-87.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-95.0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>-104.0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>-112.0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-121.0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>-129.0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>-138.0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>-146.0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>-155.0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-163.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-171.0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-179.0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-187.0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>-195.0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-203.0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-211.0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-219.0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-227.0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-235.0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>-242.0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>-250.0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>-258.0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>-265.0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>-272.0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>-280.0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>-287.0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>-294.0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>-301.0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>-308.0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>-315.0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>-321.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>-328.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>-335.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>-341.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>-347.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>-354.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>-360.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>-366.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>-372.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>-377.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>-383.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>-389.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>-394.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>-399.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>-405.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>-410.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>-415.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>-419.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>-424.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>-429.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>-433.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>-437.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>-441.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>-446.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>-449.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>-453.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>-457.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>-460.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-464.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>-467.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>-470.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>-473.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>-476.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>-478.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>-481.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>-483.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>-485.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>-487.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>-489.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>-491.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>-492.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>-494.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>-495.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>-496.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>-497.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>-498.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>-499.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>-499.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>-500.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>-500.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>-500.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>-500.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>-500.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>-499.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>-499.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>-498.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>-497.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>-496.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>-495.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>-494.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>-492.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>-491.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>-489.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>-487.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>-485.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>-483.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>-481.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>-478.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>-476.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>-473.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>-470.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>-467.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>-464.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>-460.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>-457.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>-453.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>-449.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>-446.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>-441.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>-437.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>-433.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>-429.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>-424.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>-419.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>-415.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>-410.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>-405.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>-399.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>-394.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>-389.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>-383.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>-377.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>-372.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>-366.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>-360.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>-354.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>-347.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>-341.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>-335.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>-328.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>-321.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>-315.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>-308.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>-301.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>-294.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>-287.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>-280.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>-272.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>-265.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>-258.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>-250.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>-242.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>-235.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>-227.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>-219.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>-211.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>-203.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>-195.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>-187.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>-179.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>-171.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>-163.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>-155.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>-146.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>-138.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>-129.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>-121.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>-112.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>-104.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>-95.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>-87.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>-78.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>-70.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>-61.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>-52.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>-44.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>-35.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>-26.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>-17.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>-9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,11 +1288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103873520"/>
-        <c:axId val="-2103812800"/>
+        <c:axId val="-2091816688"/>
+        <c:axId val="-2091813472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103873520"/>
+        <c:axId val="-2091816688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103812800"/>
+        <c:crossAx val="-2091813472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1339,7 +1343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103812800"/>
+        <c:axId val="-2091813472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103873520"/>
+        <c:crossAx val="-2091816688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2605,11 +2609,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2128751824"/>
-        <c:axId val="-2101818384"/>
+        <c:axId val="-2087468432"/>
+        <c:axId val="-2087465472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128751824"/>
+        <c:axId val="-2087468432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,7 +2656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101818384"/>
+        <c:crossAx val="-2087465472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2660,7 +2664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101818384"/>
+        <c:axId val="-2087465472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128751824"/>
+        <c:crossAx val="-2087468432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4202,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E360"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D360" sqref="D302:D360"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4213,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>ROUND(SIN(A1 * PI()/180) * 500, 0)</f>
+        <f>ROUND(SIN(A1 * PI()/180) * 1000, 0)</f>
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -4232,8 +4236,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">ROUND(SIN(A2 * PI()/180) * 500, 0)</f>
-        <v>9</v>
+        <f t="shared" ref="B2:B65" si="0">ROUND(SIN(A2 * PI()/180) * 1000, 0)</f>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4252,7 +4256,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -4271,7 +4275,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -4290,7 +4294,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -4309,7 +4313,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -4328,7 +4332,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -4347,7 +4351,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -4366,7 +4370,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -4385,7 +4389,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -4404,7 +4408,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -4423,7 +4427,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -4442,7 +4446,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -4461,7 +4465,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -4480,7 +4484,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -4499,7 +4503,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -4518,7 +4522,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -4537,7 +4541,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -4556,7 +4560,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -4575,7 +4579,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -4594,7 +4598,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -4613,7 +4617,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -4632,7 +4636,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -4651,7 +4655,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -4670,7 +4674,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -4689,7 +4693,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -4708,7 +4712,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -4727,7 +4731,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -4746,7 +4750,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>469</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -4765,7 +4769,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>485</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -4784,7 +4788,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -4803,7 +4807,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>515</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -4822,7 +4826,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -4841,7 +4845,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>545</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -4860,7 +4864,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>559</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -4879,7 +4883,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -4898,7 +4902,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>588</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -4917,7 +4921,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>602</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -4936,7 +4940,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>616</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -4955,7 +4959,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>629</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -4974,7 +4978,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>643</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -4993,7 +4997,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -5012,7 +5016,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>335</v>
+        <v>669</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -5031,7 +5035,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>682</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -5050,7 +5054,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>695</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -5069,7 +5073,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>354</v>
+        <v>707</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -5088,7 +5092,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>719</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -5107,7 +5111,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>731</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -5126,7 +5130,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>743</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -5145,7 +5149,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>755</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -5164,7 +5168,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>383</v>
+        <v>766</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -5183,7 +5187,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>777</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -5202,7 +5206,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>394</v>
+        <v>788</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -5221,7 +5225,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -5240,7 +5244,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>405</v>
+        <v>809</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -5259,7 +5263,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>819</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -5278,7 +5282,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>415</v>
+        <v>829</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -5297,7 +5301,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>839</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -5316,7 +5320,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>848</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -5335,7 +5339,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>857</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -5354,7 +5358,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>866</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -5373,7 +5377,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>875</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -5391,7 +5395,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>883</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -5409,7 +5413,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>446</v>
+        <v>891</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -5427,7 +5431,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>899</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -5444,8 +5448,8 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="2">ROUND(SIN(A66 * PI()/180) * 500, 0)</f>
-        <v>453</v>
+        <f t="shared" ref="B66:B129" si="2">ROUND(SIN(A66 * PI()/180) * 1000, 0)</f>
+        <v>906</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -5463,7 +5467,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="2"/>
-        <v>457</v>
+        <v>914</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -5481,7 +5485,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>921</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -5499,7 +5503,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>927</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -5517,7 +5521,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
-        <v>467</v>
+        <v>934</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -5535,7 +5539,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
-        <v>470</v>
+        <v>940</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -5553,7 +5557,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -5571,7 +5575,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
-        <v>476</v>
+        <v>951</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -5589,7 +5593,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
-        <v>478</v>
+        <v>956</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -5607,7 +5611,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
-        <v>481</v>
+        <v>961</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -5625,7 +5629,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="2"/>
-        <v>483</v>
+        <v>966</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -5643,7 +5647,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="2"/>
-        <v>485</v>
+        <v>970</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -5661,7 +5665,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="2"/>
-        <v>487</v>
+        <v>974</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -5679,7 +5683,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="2"/>
-        <v>489</v>
+        <v>978</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -5697,7 +5701,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="2"/>
-        <v>491</v>
+        <v>982</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -5715,7 +5719,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>985</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -5733,7 +5737,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="2"/>
-        <v>494</v>
+        <v>988</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -5751,7 +5755,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="2"/>
-        <v>495</v>
+        <v>990</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -5769,7 +5773,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="2"/>
-        <v>496</v>
+        <v>993</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -5787,7 +5791,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="2"/>
-        <v>497</v>
+        <v>995</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -5805,7 +5809,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="2"/>
-        <v>498</v>
+        <v>996</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -5823,7 +5827,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>998</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -5841,7 +5845,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>999</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -5859,7 +5863,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>999</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -5877,7 +5881,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -5895,7 +5899,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C91" t="s">
         <v>0</v>
@@ -5913,7 +5917,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
@@ -5931,7 +5935,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>999</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -5949,7 +5953,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>999</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -5967,7 +5971,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>998</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -5985,7 +5989,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="2"/>
-        <v>498</v>
+        <v>996</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -6003,7 +6007,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="2"/>
-        <v>497</v>
+        <v>995</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -6021,7 +6025,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="2"/>
-        <v>496</v>
+        <v>993</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -6039,7 +6043,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="2"/>
-        <v>495</v>
+        <v>990</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -6057,7 +6061,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="2"/>
-        <v>494</v>
+        <v>988</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -6075,7 +6079,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>985</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -6093,7 +6097,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="2"/>
-        <v>491</v>
+        <v>982</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -6111,7 +6115,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="2"/>
-        <v>489</v>
+        <v>978</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -6129,7 +6133,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="2"/>
-        <v>487</v>
+        <v>974</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -6147,7 +6151,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="2"/>
-        <v>485</v>
+        <v>970</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
@@ -6165,7 +6169,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="2"/>
-        <v>483</v>
+        <v>966</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
@@ -6183,7 +6187,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="2"/>
-        <v>481</v>
+        <v>961</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -6201,7 +6205,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="2"/>
-        <v>478</v>
+        <v>956</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -6219,7 +6223,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="2"/>
-        <v>476</v>
+        <v>951</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -6237,7 +6241,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="2"/>
-        <v>473</v>
+        <v>946</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -6255,7 +6259,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="2"/>
-        <v>470</v>
+        <v>940</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -6273,7 +6277,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="2"/>
-        <v>467</v>
+        <v>934</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -6291,7 +6295,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>927</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -6309,7 +6313,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>921</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -6327,7 +6331,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="2"/>
-        <v>457</v>
+        <v>914</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -6345,7 +6349,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="2"/>
-        <v>453</v>
+        <v>906</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
@@ -6363,7 +6367,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="2"/>
-        <v>449</v>
+        <v>899</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -6381,7 +6385,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="2"/>
-        <v>446</v>
+        <v>891</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -6399,7 +6403,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="2"/>
-        <v>441</v>
+        <v>883</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -6417,7 +6421,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>875</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -6435,7 +6439,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="2"/>
-        <v>433</v>
+        <v>866</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -6454,7 +6458,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="2"/>
-        <v>429</v>
+        <v>857</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -6473,7 +6477,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="2"/>
-        <v>424</v>
+        <v>848</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -6492,7 +6496,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="2"/>
-        <v>419</v>
+        <v>839</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -6511,7 +6515,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="2"/>
-        <v>415</v>
+        <v>829</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -6530,7 +6534,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="2"/>
-        <v>410</v>
+        <v>819</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
@@ -6549,7 +6553,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="2"/>
-        <v>405</v>
+        <v>809</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -6568,7 +6572,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="2"/>
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
@@ -6587,7 +6591,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="2"/>
-        <v>394</v>
+        <v>788</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
@@ -6605,8 +6609,8 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B193" si="4">ROUND(SIN(A130 * PI()/180) * 500, 0)</f>
-        <v>389</v>
+        <f t="shared" ref="B130:B193" si="4">ROUND(SIN(A130 * PI()/180) * 1000, 0)</f>
+        <v>777</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -6625,7 +6629,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="4"/>
-        <v>383</v>
+        <v>766</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
@@ -6644,7 +6648,7 @@
       </c>
       <c r="B132">
         <f t="shared" si="4"/>
-        <v>377</v>
+        <v>755</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -6663,7 +6667,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="4"/>
-        <v>372</v>
+        <v>743</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -6682,7 +6686,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="4"/>
-        <v>366</v>
+        <v>731</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -6701,7 +6705,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>719</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
@@ -6720,7 +6724,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="4"/>
-        <v>354</v>
+        <v>707</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
@@ -6739,7 +6743,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="4"/>
-        <v>347</v>
+        <v>695</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
@@ -6758,7 +6762,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="4"/>
-        <v>341</v>
+        <v>682</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -6777,7 +6781,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="4"/>
-        <v>335</v>
+        <v>669</v>
       </c>
       <c r="C139" t="s">
         <v>0</v>
@@ -6796,7 +6800,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="4"/>
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="C140" t="s">
         <v>0</v>
@@ -6815,7 +6819,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="4"/>
-        <v>321</v>
+        <v>643</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
@@ -6834,7 +6838,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="4"/>
-        <v>315</v>
+        <v>629</v>
       </c>
       <c r="C142" t="s">
         <v>0</v>
@@ -6853,7 +6857,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="4"/>
-        <v>308</v>
+        <v>616</v>
       </c>
       <c r="C143" t="s">
         <v>0</v>
@@ -6872,7 +6876,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="4"/>
-        <v>301</v>
+        <v>602</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
@@ -6891,7 +6895,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="4"/>
-        <v>294</v>
+        <v>588</v>
       </c>
       <c r="C145" t="s">
         <v>0</v>
@@ -6910,7 +6914,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="4"/>
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
@@ -6929,7 +6933,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>559</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
@@ -6948,7 +6952,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="4"/>
-        <v>272</v>
+        <v>545</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
@@ -6967,7 +6971,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
@@ -6986,7 +6990,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="4"/>
-        <v>258</v>
+        <v>515</v>
       </c>
       <c r="C150" t="s">
         <v>0</v>
@@ -7005,7 +7009,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
@@ -7024,7 +7028,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="4"/>
-        <v>242</v>
+        <v>485</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
@@ -7043,7 +7047,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="4"/>
-        <v>235</v>
+        <v>469</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
@@ -7062,7 +7066,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="4"/>
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -7081,7 +7085,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
@@ -7100,7 +7104,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="C156" t="s">
         <v>0</v>
@@ -7119,7 +7123,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
@@ -7138,7 +7142,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
-        <v>195</v>
+        <v>391</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
@@ -7157,7 +7161,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -7176,7 +7180,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
@@ -7195,7 +7199,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
@@ -7214,7 +7218,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
@@ -7233,7 +7237,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
@@ -7252,7 +7256,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
@@ -7271,7 +7275,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -7290,7 +7294,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="4"/>
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
@@ -7309,7 +7313,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -7328,7 +7332,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
@@ -7347,7 +7351,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
@@ -7366,7 +7370,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
@@ -7385,7 +7389,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -7404,7 +7408,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
@@ -7423,7 +7427,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -7442,7 +7446,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
@@ -7461,7 +7465,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -7480,7 +7484,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
@@ -7499,7 +7503,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -7518,7 +7522,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -7537,7 +7541,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
@@ -7556,7 +7560,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
@@ -7594,7 +7598,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="4"/>
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -7613,7 +7617,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="4"/>
-        <v>-17</v>
+        <v>-35</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -7632,7 +7636,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="4"/>
-        <v>-26</v>
+        <v>-52</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
@@ -7651,7 +7655,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="4"/>
-        <v>-35</v>
+        <v>-70</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
@@ -7670,7 +7674,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="4"/>
-        <v>-44</v>
+        <v>-87</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
@@ -7689,7 +7693,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="4"/>
-        <v>-52</v>
+        <v>-105</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
@@ -7708,7 +7712,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="4"/>
-        <v>-61</v>
+        <v>-122</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -7727,7 +7731,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="4"/>
-        <v>-70</v>
+        <v>-139</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
@@ -7746,7 +7750,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="4"/>
-        <v>-78</v>
+        <v>-156</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
@@ -7765,7 +7769,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="4"/>
-        <v>-87</v>
+        <v>-174</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -7784,7 +7788,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="4"/>
-        <v>-95</v>
+        <v>-191</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
@@ -7803,7 +7807,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="4"/>
-        <v>-104</v>
+        <v>-208</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -7821,8 +7825,8 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B257" si="6">ROUND(SIN(A194 * PI()/180) * 500, 0)</f>
-        <v>-112</v>
+        <f t="shared" ref="B194:B257" si="6">ROUND(SIN(A194 * PI()/180) * 1000, 0)</f>
+        <v>-225</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
@@ -7841,7 +7845,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="6"/>
-        <v>-121</v>
+        <v>-242</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
@@ -7860,7 +7864,7 @@
       </c>
       <c r="B196">
         <f t="shared" si="6"/>
-        <v>-129</v>
+        <v>-259</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
@@ -7879,7 +7883,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="6"/>
-        <v>-138</v>
+        <v>-276</v>
       </c>
       <c r="C197" t="s">
         <v>0</v>
@@ -7898,7 +7902,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="6"/>
-        <v>-146</v>
+        <v>-292</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
@@ -7917,7 +7921,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="6"/>
-        <v>-155</v>
+        <v>-309</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
@@ -7936,7 +7940,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="6"/>
-        <v>-163</v>
+        <v>-326</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
@@ -7955,7 +7959,7 @@
       </c>
       <c r="B201">
         <f t="shared" si="6"/>
-        <v>-171</v>
+        <v>-342</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -7974,7 +7978,7 @@
       </c>
       <c r="B202">
         <f t="shared" si="6"/>
-        <v>-179</v>
+        <v>-358</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -7993,7 +7997,7 @@
       </c>
       <c r="B203">
         <f t="shared" si="6"/>
-        <v>-187</v>
+        <v>-375</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -8012,7 +8016,7 @@
       </c>
       <c r="B204">
         <f t="shared" si="6"/>
-        <v>-195</v>
+        <v>-391</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -8031,7 +8035,7 @@
       </c>
       <c r="B205">
         <f t="shared" si="6"/>
-        <v>-203</v>
+        <v>-407</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
@@ -8050,7 +8054,7 @@
       </c>
       <c r="B206">
         <f t="shared" si="6"/>
-        <v>-211</v>
+        <v>-423</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
@@ -8069,7 +8073,7 @@
       </c>
       <c r="B207">
         <f t="shared" si="6"/>
-        <v>-219</v>
+        <v>-438</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
@@ -8088,7 +8092,7 @@
       </c>
       <c r="B208">
         <f t="shared" si="6"/>
-        <v>-227</v>
+        <v>-454</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
@@ -8107,7 +8111,7 @@
       </c>
       <c r="B209">
         <f t="shared" si="6"/>
-        <v>-235</v>
+        <v>-469</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
@@ -8126,7 +8130,7 @@
       </c>
       <c r="B210">
         <f t="shared" si="6"/>
-        <v>-242</v>
+        <v>-485</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -8145,7 +8149,7 @@
       </c>
       <c r="B211">
         <f t="shared" si="6"/>
-        <v>-250</v>
+        <v>-500</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
@@ -8164,7 +8168,7 @@
       </c>
       <c r="B212">
         <f t="shared" si="6"/>
-        <v>-258</v>
+        <v>-515</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
@@ -8183,7 +8187,7 @@
       </c>
       <c r="B213">
         <f t="shared" si="6"/>
-        <v>-265</v>
+        <v>-530</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
@@ -8202,7 +8206,7 @@
       </c>
       <c r="B214">
         <f t="shared" si="6"/>
-        <v>-272</v>
+        <v>-545</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
@@ -8221,7 +8225,7 @@
       </c>
       <c r="B215">
         <f t="shared" si="6"/>
-        <v>-280</v>
+        <v>-559</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
@@ -8240,7 +8244,7 @@
       </c>
       <c r="B216">
         <f t="shared" si="6"/>
-        <v>-287</v>
+        <v>-574</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
@@ -8259,7 +8263,7 @@
       </c>
       <c r="B217">
         <f t="shared" si="6"/>
-        <v>-294</v>
+        <v>-588</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
@@ -8278,7 +8282,7 @@
       </c>
       <c r="B218">
         <f t="shared" si="6"/>
-        <v>-301</v>
+        <v>-602</v>
       </c>
       <c r="C218" t="s">
         <v>0</v>
@@ -8297,7 +8301,7 @@
       </c>
       <c r="B219">
         <f t="shared" si="6"/>
-        <v>-308</v>
+        <v>-616</v>
       </c>
       <c r="C219" t="s">
         <v>0</v>
@@ -8316,7 +8320,7 @@
       </c>
       <c r="B220">
         <f t="shared" si="6"/>
-        <v>-315</v>
+        <v>-629</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
@@ -8335,7 +8339,7 @@
       </c>
       <c r="B221">
         <f t="shared" si="6"/>
-        <v>-321</v>
+        <v>-643</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
@@ -8354,7 +8358,7 @@
       </c>
       <c r="B222">
         <f t="shared" si="6"/>
-        <v>-328</v>
+        <v>-656</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
@@ -8373,7 +8377,7 @@
       </c>
       <c r="B223">
         <f t="shared" si="6"/>
-        <v>-335</v>
+        <v>-669</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
@@ -8392,7 +8396,7 @@
       </c>
       <c r="B224">
         <f t="shared" si="6"/>
-        <v>-341</v>
+        <v>-682</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -8411,7 +8415,7 @@
       </c>
       <c r="B225">
         <f t="shared" si="6"/>
-        <v>-347</v>
+        <v>-695</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -8430,7 +8434,7 @@
       </c>
       <c r="B226">
         <f t="shared" si="6"/>
-        <v>-354</v>
+        <v>-707</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
@@ -8449,7 +8453,7 @@
       </c>
       <c r="B227">
         <f t="shared" si="6"/>
-        <v>-360</v>
+        <v>-719</v>
       </c>
       <c r="C227" t="s">
         <v>0</v>
@@ -8468,7 +8472,7 @@
       </c>
       <c r="B228">
         <f t="shared" si="6"/>
-        <v>-366</v>
+        <v>-731</v>
       </c>
       <c r="C228" t="s">
         <v>0</v>
@@ -8487,7 +8491,7 @@
       </c>
       <c r="B229">
         <f t="shared" si="6"/>
-        <v>-372</v>
+        <v>-743</v>
       </c>
       <c r="C229" t="s">
         <v>0</v>
@@ -8506,7 +8510,7 @@
       </c>
       <c r="B230">
         <f t="shared" si="6"/>
-        <v>-377</v>
+        <v>-755</v>
       </c>
       <c r="C230" t="s">
         <v>0</v>
@@ -8525,7 +8529,7 @@
       </c>
       <c r="B231">
         <f t="shared" si="6"/>
-        <v>-383</v>
+        <v>-766</v>
       </c>
       <c r="C231" t="s">
         <v>0</v>
@@ -8544,7 +8548,7 @@
       </c>
       <c r="B232">
         <f t="shared" si="6"/>
-        <v>-389</v>
+        <v>-777</v>
       </c>
       <c r="C232" t="s">
         <v>0</v>
@@ -8563,7 +8567,7 @@
       </c>
       <c r="B233">
         <f t="shared" si="6"/>
-        <v>-394</v>
+        <v>-788</v>
       </c>
       <c r="C233" t="s">
         <v>0</v>
@@ -8582,7 +8586,7 @@
       </c>
       <c r="B234">
         <f t="shared" si="6"/>
-        <v>-399</v>
+        <v>-799</v>
       </c>
       <c r="C234" t="s">
         <v>0</v>
@@ -8601,7 +8605,7 @@
       </c>
       <c r="B235">
         <f t="shared" si="6"/>
-        <v>-405</v>
+        <v>-809</v>
       </c>
       <c r="C235" t="s">
         <v>0</v>
@@ -8620,7 +8624,7 @@
       </c>
       <c r="B236">
         <f t="shared" si="6"/>
-        <v>-410</v>
+        <v>-819</v>
       </c>
       <c r="C236" t="s">
         <v>0</v>
@@ -8639,7 +8643,7 @@
       </c>
       <c r="B237">
         <f t="shared" si="6"/>
-        <v>-415</v>
+        <v>-829</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
@@ -8658,7 +8662,7 @@
       </c>
       <c r="B238">
         <f t="shared" si="6"/>
-        <v>-419</v>
+        <v>-839</v>
       </c>
       <c r="C238" t="s">
         <v>0</v>
@@ -8677,7 +8681,7 @@
       </c>
       <c r="B239">
         <f t="shared" si="6"/>
-        <v>-424</v>
+        <v>-848</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
@@ -8696,7 +8700,7 @@
       </c>
       <c r="B240">
         <f t="shared" si="6"/>
-        <v>-429</v>
+        <v>-857</v>
       </c>
       <c r="C240" t="s">
         <v>0</v>
@@ -8715,7 +8719,7 @@
       </c>
       <c r="B241">
         <f t="shared" si="6"/>
-        <v>-433</v>
+        <v>-866</v>
       </c>
       <c r="C241" t="s">
         <v>0</v>
@@ -8734,7 +8738,7 @@
       </c>
       <c r="B242">
         <f t="shared" si="6"/>
-        <v>-437</v>
+        <v>-875</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
@@ -8752,7 +8756,7 @@
       </c>
       <c r="B243">
         <f t="shared" si="6"/>
-        <v>-441</v>
+        <v>-883</v>
       </c>
       <c r="C243" t="s">
         <v>0</v>
@@ -8770,7 +8774,7 @@
       </c>
       <c r="B244">
         <f t="shared" si="6"/>
-        <v>-446</v>
+        <v>-891</v>
       </c>
       <c r="C244" t="s">
         <v>0</v>
@@ -8788,7 +8792,7 @@
       </c>
       <c r="B245">
         <f t="shared" si="6"/>
-        <v>-449</v>
+        <v>-899</v>
       </c>
       <c r="C245" t="s">
         <v>0</v>
@@ -8806,7 +8810,7 @@
       </c>
       <c r="B246">
         <f t="shared" si="6"/>
-        <v>-453</v>
+        <v>-906</v>
       </c>
       <c r="C246" t="s">
         <v>0</v>
@@ -8824,7 +8828,7 @@
       </c>
       <c r="B247">
         <f t="shared" si="6"/>
-        <v>-457</v>
+        <v>-914</v>
       </c>
       <c r="C247" t="s">
         <v>0</v>
@@ -8842,7 +8846,7 @@
       </c>
       <c r="B248">
         <f t="shared" si="6"/>
-        <v>-460</v>
+        <v>-921</v>
       </c>
       <c r="C248" t="s">
         <v>0</v>
@@ -8860,7 +8864,7 @@
       </c>
       <c r="B249">
         <f t="shared" si="6"/>
-        <v>-464</v>
+        <v>-927</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
@@ -8878,7 +8882,7 @@
       </c>
       <c r="B250">
         <f t="shared" si="6"/>
-        <v>-467</v>
+        <v>-934</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
@@ -8896,7 +8900,7 @@
       </c>
       <c r="B251">
         <f t="shared" si="6"/>
-        <v>-470</v>
+        <v>-940</v>
       </c>
       <c r="C251" t="s">
         <v>0</v>
@@ -8914,7 +8918,7 @@
       </c>
       <c r="B252">
         <f t="shared" si="6"/>
-        <v>-473</v>
+        <v>-946</v>
       </c>
       <c r="C252" t="s">
         <v>0</v>
@@ -8932,7 +8936,7 @@
       </c>
       <c r="B253">
         <f t="shared" si="6"/>
-        <v>-476</v>
+        <v>-951</v>
       </c>
       <c r="C253" t="s">
         <v>0</v>
@@ -8950,7 +8954,7 @@
       </c>
       <c r="B254">
         <f t="shared" si="6"/>
-        <v>-478</v>
+        <v>-956</v>
       </c>
       <c r="C254" t="s">
         <v>0</v>
@@ -8968,7 +8972,7 @@
       </c>
       <c r="B255">
         <f t="shared" si="6"/>
-        <v>-481</v>
+        <v>-961</v>
       </c>
       <c r="C255" t="s">
         <v>0</v>
@@ -8986,7 +8990,7 @@
       </c>
       <c r="B256">
         <f t="shared" si="6"/>
-        <v>-483</v>
+        <v>-966</v>
       </c>
       <c r="C256" t="s">
         <v>0</v>
@@ -9004,7 +9008,7 @@
       </c>
       <c r="B257">
         <f t="shared" si="6"/>
-        <v>-485</v>
+        <v>-970</v>
       </c>
       <c r="C257" t="s">
         <v>0</v>
@@ -9021,8 +9025,8 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B321" si="7">ROUND(SIN(A258 * PI()/180) * 500, 0)</f>
-        <v>-487</v>
+        <f t="shared" ref="B258:B321" si="7">ROUND(SIN(A258 * PI()/180) * 1000, 0)</f>
+        <v>-974</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -9040,7 +9044,7 @@
       </c>
       <c r="B259">
         <f t="shared" si="7"/>
-        <v>-489</v>
+        <v>-978</v>
       </c>
       <c r="C259" t="s">
         <v>0</v>
@@ -9058,7 +9062,7 @@
       </c>
       <c r="B260">
         <f t="shared" si="7"/>
-        <v>-491</v>
+        <v>-982</v>
       </c>
       <c r="C260" t="s">
         <v>0</v>
@@ -9076,7 +9080,7 @@
       </c>
       <c r="B261">
         <f t="shared" si="7"/>
-        <v>-492</v>
+        <v>-985</v>
       </c>
       <c r="C261" t="s">
         <v>0</v>
@@ -9094,7 +9098,7 @@
       </c>
       <c r="B262">
         <f t="shared" si="7"/>
-        <v>-494</v>
+        <v>-988</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
@@ -9112,7 +9116,7 @@
       </c>
       <c r="B263">
         <f t="shared" si="7"/>
-        <v>-495</v>
+        <v>-990</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
@@ -9130,7 +9134,7 @@
       </c>
       <c r="B264">
         <f t="shared" si="7"/>
-        <v>-496</v>
+        <v>-993</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
@@ -9148,7 +9152,7 @@
       </c>
       <c r="B265">
         <f t="shared" si="7"/>
-        <v>-497</v>
+        <v>-995</v>
       </c>
       <c r="C265" t="s">
         <v>0</v>
@@ -9166,7 +9170,7 @@
       </c>
       <c r="B266">
         <f t="shared" si="7"/>
-        <v>-498</v>
+        <v>-996</v>
       </c>
       <c r="C266" t="s">
         <v>0</v>
@@ -9184,7 +9188,7 @@
       </c>
       <c r="B267">
         <f t="shared" si="7"/>
-        <v>-499</v>
+        <v>-998</v>
       </c>
       <c r="C267" t="s">
         <v>0</v>
@@ -9202,7 +9206,7 @@
       </c>
       <c r="B268">
         <f t="shared" si="7"/>
-        <v>-499</v>
+        <v>-999</v>
       </c>
       <c r="C268" t="s">
         <v>0</v>
@@ -9220,7 +9224,7 @@
       </c>
       <c r="B269">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>-999</v>
       </c>
       <c r="C269" t="s">
         <v>0</v>
@@ -9238,7 +9242,7 @@
       </c>
       <c r="B270">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C270" t="s">
         <v>0</v>
@@ -9256,7 +9260,7 @@
       </c>
       <c r="B271">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -9274,7 +9278,7 @@
       </c>
       <c r="B272">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -9292,7 +9296,7 @@
       </c>
       <c r="B273">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>-999</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
@@ -9310,7 +9314,7 @@
       </c>
       <c r="B274">
         <f t="shared" si="7"/>
-        <v>-499</v>
+        <v>-999</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -9328,7 +9332,7 @@
       </c>
       <c r="B275">
         <f t="shared" si="7"/>
-        <v>-499</v>
+        <v>-998</v>
       </c>
       <c r="C275" t="s">
         <v>0</v>
@@ -9346,7 +9350,7 @@
       </c>
       <c r="B276">
         <f t="shared" si="7"/>
-        <v>-498</v>
+        <v>-996</v>
       </c>
       <c r="C276" t="s">
         <v>0</v>
@@ -9364,7 +9368,7 @@
       </c>
       <c r="B277">
         <f t="shared" si="7"/>
-        <v>-497</v>
+        <v>-995</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
@@ -9382,7 +9386,7 @@
       </c>
       <c r="B278">
         <f t="shared" si="7"/>
-        <v>-496</v>
+        <v>-993</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
@@ -9400,7 +9404,7 @@
       </c>
       <c r="B279">
         <f t="shared" si="7"/>
-        <v>-495</v>
+        <v>-990</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -9418,7 +9422,7 @@
       </c>
       <c r="B280">
         <f t="shared" si="7"/>
-        <v>-494</v>
+        <v>-988</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
@@ -9436,7 +9440,7 @@
       </c>
       <c r="B281">
         <f t="shared" si="7"/>
-        <v>-492</v>
+        <v>-985</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
@@ -9454,7 +9458,7 @@
       </c>
       <c r="B282">
         <f t="shared" si="7"/>
-        <v>-491</v>
+        <v>-982</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -9472,7 +9476,7 @@
       </c>
       <c r="B283">
         <f t="shared" si="7"/>
-        <v>-489</v>
+        <v>-978</v>
       </c>
       <c r="C283" t="s">
         <v>0</v>
@@ -9490,7 +9494,7 @@
       </c>
       <c r="B284">
         <f t="shared" si="7"/>
-        <v>-487</v>
+        <v>-974</v>
       </c>
       <c r="C284" t="s">
         <v>0</v>
@@ -9508,7 +9512,7 @@
       </c>
       <c r="B285">
         <f t="shared" si="7"/>
-        <v>-485</v>
+        <v>-970</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
@@ -9526,7 +9530,7 @@
       </c>
       <c r="B286">
         <f t="shared" si="7"/>
-        <v>-483</v>
+        <v>-966</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -9544,7 +9548,7 @@
       </c>
       <c r="B287">
         <f t="shared" si="7"/>
-        <v>-481</v>
+        <v>-961</v>
       </c>
       <c r="C287" t="s">
         <v>0</v>
@@ -9562,7 +9566,7 @@
       </c>
       <c r="B288">
         <f t="shared" si="7"/>
-        <v>-478</v>
+        <v>-956</v>
       </c>
       <c r="C288" t="s">
         <v>0</v>
@@ -9580,7 +9584,7 @@
       </c>
       <c r="B289">
         <f t="shared" si="7"/>
-        <v>-476</v>
+        <v>-951</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -9598,7 +9602,7 @@
       </c>
       <c r="B290">
         <f t="shared" si="7"/>
-        <v>-473</v>
+        <v>-946</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
@@ -9616,7 +9620,7 @@
       </c>
       <c r="B291">
         <f t="shared" si="7"/>
-        <v>-470</v>
+        <v>-940</v>
       </c>
       <c r="C291" t="s">
         <v>0</v>
@@ -9634,7 +9638,7 @@
       </c>
       <c r="B292">
         <f t="shared" si="7"/>
-        <v>-467</v>
+        <v>-934</v>
       </c>
       <c r="C292" t="s">
         <v>0</v>
@@ -9652,7 +9656,7 @@
       </c>
       <c r="B293">
         <f t="shared" si="7"/>
-        <v>-464</v>
+        <v>-927</v>
       </c>
       <c r="C293" t="s">
         <v>0</v>
@@ -9670,7 +9674,7 @@
       </c>
       <c r="B294">
         <f t="shared" si="7"/>
-        <v>-460</v>
+        <v>-921</v>
       </c>
       <c r="C294" t="s">
         <v>0</v>
@@ -9688,7 +9692,7 @@
       </c>
       <c r="B295">
         <f t="shared" si="7"/>
-        <v>-457</v>
+        <v>-914</v>
       </c>
       <c r="C295" t="s">
         <v>0</v>
@@ -9706,7 +9710,7 @@
       </c>
       <c r="B296">
         <f t="shared" si="7"/>
-        <v>-453</v>
+        <v>-906</v>
       </c>
       <c r="C296" t="s">
         <v>0</v>
@@ -9724,7 +9728,7 @@
       </c>
       <c r="B297">
         <f t="shared" si="7"/>
-        <v>-449</v>
+        <v>-899</v>
       </c>
       <c r="C297" t="s">
         <v>0</v>
@@ -9742,7 +9746,7 @@
       </c>
       <c r="B298">
         <f t="shared" si="7"/>
-        <v>-446</v>
+        <v>-891</v>
       </c>
       <c r="C298" t="s">
         <v>0</v>
@@ -9760,7 +9764,7 @@
       </c>
       <c r="B299">
         <f t="shared" si="7"/>
-        <v>-441</v>
+        <v>-883</v>
       </c>
       <c r="C299" t="s">
         <v>0</v>
@@ -9778,7 +9782,7 @@
       </c>
       <c r="B300">
         <f t="shared" si="7"/>
-        <v>-437</v>
+        <v>-875</v>
       </c>
       <c r="C300" t="s">
         <v>0</v>
@@ -9796,7 +9800,7 @@
       </c>
       <c r="B301">
         <f t="shared" si="7"/>
-        <v>-433</v>
+        <v>-866</v>
       </c>
       <c r="C301" t="s">
         <v>0</v>
@@ -9814,7 +9818,7 @@
       </c>
       <c r="B302">
         <f t="shared" si="7"/>
-        <v>-429</v>
+        <v>-857</v>
       </c>
       <c r="C302" t="s">
         <v>0</v>
@@ -9833,7 +9837,7 @@
       </c>
       <c r="B303">
         <f t="shared" si="7"/>
-        <v>-424</v>
+        <v>-848</v>
       </c>
       <c r="C303" t="s">
         <v>0</v>
@@ -9852,7 +9856,7 @@
       </c>
       <c r="B304">
         <f t="shared" si="7"/>
-        <v>-419</v>
+        <v>-839</v>
       </c>
       <c r="C304" t="s">
         <v>0</v>
@@ -9871,7 +9875,7 @@
       </c>
       <c r="B305">
         <f t="shared" si="7"/>
-        <v>-415</v>
+        <v>-829</v>
       </c>
       <c r="C305" t="s">
         <v>0</v>
@@ -9890,7 +9894,7 @@
       </c>
       <c r="B306">
         <f t="shared" si="7"/>
-        <v>-410</v>
+        <v>-819</v>
       </c>
       <c r="C306" t="s">
         <v>0</v>
@@ -9909,7 +9913,7 @@
       </c>
       <c r="B307">
         <f t="shared" si="7"/>
-        <v>-405</v>
+        <v>-809</v>
       </c>
       <c r="C307" t="s">
         <v>0</v>
@@ -9928,7 +9932,7 @@
       </c>
       <c r="B308">
         <f t="shared" si="7"/>
-        <v>-399</v>
+        <v>-799</v>
       </c>
       <c r="C308" t="s">
         <v>0</v>
@@ -9947,7 +9951,7 @@
       </c>
       <c r="B309">
         <f t="shared" si="7"/>
-        <v>-394</v>
+        <v>-788</v>
       </c>
       <c r="C309" t="s">
         <v>0</v>
@@ -9966,7 +9970,7 @@
       </c>
       <c r="B310">
         <f t="shared" si="7"/>
-        <v>-389</v>
+        <v>-777</v>
       </c>
       <c r="C310" t="s">
         <v>0</v>
@@ -9985,7 +9989,7 @@
       </c>
       <c r="B311">
         <f t="shared" si="7"/>
-        <v>-383</v>
+        <v>-766</v>
       </c>
       <c r="C311" t="s">
         <v>0</v>
@@ -10004,7 +10008,7 @@
       </c>
       <c r="B312">
         <f t="shared" si="7"/>
-        <v>-377</v>
+        <v>-755</v>
       </c>
       <c r="C312" t="s">
         <v>0</v>
@@ -10023,7 +10027,7 @@
       </c>
       <c r="B313">
         <f t="shared" si="7"/>
-        <v>-372</v>
+        <v>-743</v>
       </c>
       <c r="C313" t="s">
         <v>0</v>
@@ -10042,7 +10046,7 @@
       </c>
       <c r="B314">
         <f t="shared" si="7"/>
-        <v>-366</v>
+        <v>-731</v>
       </c>
       <c r="C314" t="s">
         <v>0</v>
@@ -10061,7 +10065,7 @@
       </c>
       <c r="B315">
         <f t="shared" si="7"/>
-        <v>-360</v>
+        <v>-719</v>
       </c>
       <c r="C315" t="s">
         <v>0</v>
@@ -10080,7 +10084,7 @@
       </c>
       <c r="B316">
         <f t="shared" si="7"/>
-        <v>-354</v>
+        <v>-707</v>
       </c>
       <c r="C316" t="s">
         <v>0</v>
@@ -10099,7 +10103,7 @@
       </c>
       <c r="B317">
         <f t="shared" si="7"/>
-        <v>-347</v>
+        <v>-695</v>
       </c>
       <c r="C317" t="s">
         <v>0</v>
@@ -10118,7 +10122,7 @@
       </c>
       <c r="B318">
         <f t="shared" si="7"/>
-        <v>-341</v>
+        <v>-682</v>
       </c>
       <c r="C318" t="s">
         <v>0</v>
@@ -10137,7 +10141,7 @@
       </c>
       <c r="B319">
         <f t="shared" si="7"/>
-        <v>-335</v>
+        <v>-669</v>
       </c>
       <c r="C319" t="s">
         <v>0</v>
@@ -10156,7 +10160,7 @@
       </c>
       <c r="B320">
         <f t="shared" si="7"/>
-        <v>-328</v>
+        <v>-656</v>
       </c>
       <c r="C320" t="s">
         <v>0</v>
@@ -10175,7 +10179,7 @@
       </c>
       <c r="B321">
         <f t="shared" si="7"/>
-        <v>-321</v>
+        <v>-643</v>
       </c>
       <c r="C321" t="s">
         <v>0</v>
@@ -10193,8 +10197,8 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <f t="shared" ref="B322:B360" si="9">ROUND(SIN(A322 * PI()/180) * 500, 0)</f>
-        <v>-315</v>
+        <f t="shared" ref="B322:B360" si="9">ROUND(SIN(A322 * PI()/180) * 1000, 0)</f>
+        <v>-629</v>
       </c>
       <c r="C322" t="s">
         <v>0</v>
@@ -10213,7 +10217,7 @@
       </c>
       <c r="B323">
         <f t="shared" si="9"/>
-        <v>-308</v>
+        <v>-616</v>
       </c>
       <c r="C323" t="s">
         <v>0</v>
@@ -10232,7 +10236,7 @@
       </c>
       <c r="B324">
         <f t="shared" si="9"/>
-        <v>-301</v>
+        <v>-602</v>
       </c>
       <c r="C324" t="s">
         <v>0</v>
@@ -10251,7 +10255,7 @@
       </c>
       <c r="B325">
         <f t="shared" si="9"/>
-        <v>-294</v>
+        <v>-588</v>
       </c>
       <c r="C325" t="s">
         <v>0</v>
@@ -10270,7 +10274,7 @@
       </c>
       <c r="B326">
         <f t="shared" si="9"/>
-        <v>-287</v>
+        <v>-574</v>
       </c>
       <c r="C326" t="s">
         <v>0</v>
@@ -10289,7 +10293,7 @@
       </c>
       <c r="B327">
         <f t="shared" si="9"/>
-        <v>-280</v>
+        <v>-559</v>
       </c>
       <c r="C327" t="s">
         <v>0</v>
@@ -10308,7 +10312,7 @@
       </c>
       <c r="B328">
         <f t="shared" si="9"/>
-        <v>-272</v>
+        <v>-545</v>
       </c>
       <c r="C328" t="s">
         <v>0</v>
@@ -10327,7 +10331,7 @@
       </c>
       <c r="B329">
         <f t="shared" si="9"/>
-        <v>-265</v>
+        <v>-530</v>
       </c>
       <c r="C329" t="s">
         <v>0</v>
@@ -10346,7 +10350,7 @@
       </c>
       <c r="B330">
         <f t="shared" si="9"/>
-        <v>-258</v>
+        <v>-515</v>
       </c>
       <c r="C330" t="s">
         <v>0</v>
@@ -10365,7 +10369,7 @@
       </c>
       <c r="B331">
         <f t="shared" si="9"/>
-        <v>-250</v>
+        <v>-500</v>
       </c>
       <c r="C331" t="s">
         <v>0</v>
@@ -10384,7 +10388,7 @@
       </c>
       <c r="B332">
         <f t="shared" si="9"/>
-        <v>-242</v>
+        <v>-485</v>
       </c>
       <c r="C332" t="s">
         <v>0</v>
@@ -10403,7 +10407,7 @@
       </c>
       <c r="B333">
         <f t="shared" si="9"/>
-        <v>-235</v>
+        <v>-469</v>
       </c>
       <c r="C333" t="s">
         <v>0</v>
@@ -10422,7 +10426,7 @@
       </c>
       <c r="B334">
         <f t="shared" si="9"/>
-        <v>-227</v>
+        <v>-454</v>
       </c>
       <c r="C334" t="s">
         <v>0</v>
@@ -10441,7 +10445,7 @@
       </c>
       <c r="B335">
         <f t="shared" si="9"/>
-        <v>-219</v>
+        <v>-438</v>
       </c>
       <c r="C335" t="s">
         <v>0</v>
@@ -10460,7 +10464,7 @@
       </c>
       <c r="B336">
         <f t="shared" si="9"/>
-        <v>-211</v>
+        <v>-423</v>
       </c>
       <c r="C336" t="s">
         <v>0</v>
@@ -10479,7 +10483,7 @@
       </c>
       <c r="B337">
         <f t="shared" si="9"/>
-        <v>-203</v>
+        <v>-407</v>
       </c>
       <c r="C337" t="s">
         <v>0</v>
@@ -10498,7 +10502,7 @@
       </c>
       <c r="B338">
         <f t="shared" si="9"/>
-        <v>-195</v>
+        <v>-391</v>
       </c>
       <c r="C338" t="s">
         <v>0</v>
@@ -10517,7 +10521,7 @@
       </c>
       <c r="B339">
         <f t="shared" si="9"/>
-        <v>-187</v>
+        <v>-375</v>
       </c>
       <c r="C339" t="s">
         <v>0</v>
@@ -10536,7 +10540,7 @@
       </c>
       <c r="B340">
         <f t="shared" si="9"/>
-        <v>-179</v>
+        <v>-358</v>
       </c>
       <c r="C340" t="s">
         <v>0</v>
@@ -10555,7 +10559,7 @@
       </c>
       <c r="B341">
         <f t="shared" si="9"/>
-        <v>-171</v>
+        <v>-342</v>
       </c>
       <c r="C341" t="s">
         <v>0</v>
@@ -10574,7 +10578,7 @@
       </c>
       <c r="B342">
         <f t="shared" si="9"/>
-        <v>-163</v>
+        <v>-326</v>
       </c>
       <c r="C342" t="s">
         <v>0</v>
@@ -10593,7 +10597,7 @@
       </c>
       <c r="B343">
         <f t="shared" si="9"/>
-        <v>-155</v>
+        <v>-309</v>
       </c>
       <c r="C343" t="s">
         <v>0</v>
@@ -10612,7 +10616,7 @@
       </c>
       <c r="B344">
         <f t="shared" si="9"/>
-        <v>-146</v>
+        <v>-292</v>
       </c>
       <c r="C344" t="s">
         <v>0</v>
@@ -10631,7 +10635,7 @@
       </c>
       <c r="B345">
         <f t="shared" si="9"/>
-        <v>-138</v>
+        <v>-276</v>
       </c>
       <c r="C345" t="s">
         <v>0</v>
@@ -10650,7 +10654,7 @@
       </c>
       <c r="B346">
         <f t="shared" si="9"/>
-        <v>-129</v>
+        <v>-259</v>
       </c>
       <c r="C346" t="s">
         <v>0</v>
@@ -10669,7 +10673,7 @@
       </c>
       <c r="B347">
         <f t="shared" si="9"/>
-        <v>-121</v>
+        <v>-242</v>
       </c>
       <c r="C347" t="s">
         <v>0</v>
@@ -10688,7 +10692,7 @@
       </c>
       <c r="B348">
         <f t="shared" si="9"/>
-        <v>-112</v>
+        <v>-225</v>
       </c>
       <c r="C348" t="s">
         <v>0</v>
@@ -10707,7 +10711,7 @@
       </c>
       <c r="B349">
         <f t="shared" si="9"/>
-        <v>-104</v>
+        <v>-208</v>
       </c>
       <c r="C349" t="s">
         <v>0</v>
@@ -10726,7 +10730,7 @@
       </c>
       <c r="B350">
         <f t="shared" si="9"/>
-        <v>-95</v>
+        <v>-191</v>
       </c>
       <c r="C350" t="s">
         <v>0</v>
@@ -10745,7 +10749,7 @@
       </c>
       <c r="B351">
         <f t="shared" si="9"/>
-        <v>-87</v>
+        <v>-174</v>
       </c>
       <c r="C351" t="s">
         <v>0</v>
@@ -10764,7 +10768,7 @@
       </c>
       <c r="B352">
         <f t="shared" si="9"/>
-        <v>-78</v>
+        <v>-156</v>
       </c>
       <c r="C352" t="s">
         <v>0</v>
@@ -10783,7 +10787,7 @@
       </c>
       <c r="B353">
         <f t="shared" si="9"/>
-        <v>-70</v>
+        <v>-139</v>
       </c>
       <c r="C353" t="s">
         <v>0</v>
@@ -10802,7 +10806,7 @@
       </c>
       <c r="B354">
         <f t="shared" si="9"/>
-        <v>-61</v>
+        <v>-122</v>
       </c>
       <c r="C354" t="s">
         <v>0</v>
@@ -10821,7 +10825,7 @@
       </c>
       <c r="B355">
         <f t="shared" si="9"/>
-        <v>-52</v>
+        <v>-105</v>
       </c>
       <c r="C355" t="s">
         <v>0</v>
@@ -10840,7 +10844,7 @@
       </c>
       <c r="B356">
         <f t="shared" si="9"/>
-        <v>-44</v>
+        <v>-87</v>
       </c>
       <c r="C356" t="s">
         <v>0</v>
@@ -10859,7 +10863,7 @@
       </c>
       <c r="B357">
         <f t="shared" si="9"/>
-        <v>-35</v>
+        <v>-70</v>
       </c>
       <c r="C357" t="s">
         <v>0</v>
@@ -10878,7 +10882,7 @@
       </c>
       <c r="B358">
         <f t="shared" si="9"/>
-        <v>-26</v>
+        <v>-52</v>
       </c>
       <c r="C358" t="s">
         <v>0</v>
@@ -10897,7 +10901,7 @@
       </c>
       <c r="B359">
         <f t="shared" si="9"/>
-        <v>-17</v>
+        <v>-35</v>
       </c>
       <c r="C359" t="s">
         <v>0</v>
@@ -10916,7 +10920,7 @@
       </c>
       <c r="B360">
         <f t="shared" si="9"/>
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="D360">
         <f>-ROUND((360-A360)*500/60, 0)</f>
